--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dnajb11-Prtg.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dnajb11-Prtg.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.086337666666665</v>
+        <v>3.735883</v>
       </c>
       <c r="H2">
-        <v>27.259013</v>
+        <v>11.207649</v>
       </c>
       <c r="I2">
-        <v>0.2905360353722419</v>
+        <v>0.1699536238627456</v>
       </c>
       <c r="J2">
-        <v>0.2905360353722419</v>
+        <v>0.1699536238627456</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1787656666666667</v>
+        <v>0.4794123333333333</v>
       </c>
       <c r="N2">
-        <v>0.536297</v>
+        <v>1.438237</v>
       </c>
       <c r="O2">
-        <v>0.1283890850233522</v>
+        <v>0.2944679249717814</v>
       </c>
       <c r="P2">
-        <v>0.1283890850233522</v>
+        <v>0.2944679249717814</v>
       </c>
       <c r="Q2">
-        <v>1.624325210540111</v>
+        <v>1.791028386090333</v>
       </c>
       <c r="R2">
-        <v>14.618926894861</v>
+        <v>16.119255474813</v>
       </c>
       <c r="S2">
-        <v>0.03730165574775442</v>
+        <v>0.05004589096029732</v>
       </c>
       <c r="T2">
-        <v>0.03730165574775442</v>
+        <v>0.05004589096029732</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.086337666666665</v>
+        <v>3.735883</v>
       </c>
       <c r="H3">
-        <v>27.259013</v>
+        <v>11.207649</v>
       </c>
       <c r="I3">
-        <v>0.2905360353722419</v>
+        <v>0.1699536238627456</v>
       </c>
       <c r="J3">
-        <v>0.2905360353722419</v>
+        <v>0.1699536238627456</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>2.212172</v>
       </c>
       <c r="O3">
-        <v>0.5295922576376132</v>
+        <v>0.4529251427412002</v>
       </c>
       <c r="P3">
-        <v>0.5295922576376132</v>
+        <v>0.4529251427412002</v>
       </c>
       <c r="Q3">
-        <v>6.700180589581777</v>
+        <v>2.754805255958666</v>
       </c>
       <c r="R3">
-        <v>60.30162530623598</v>
+        <v>24.793247303628</v>
       </c>
       <c r="S3">
-        <v>0.153865634897867</v>
+        <v>0.0769762693474183</v>
       </c>
       <c r="T3">
-        <v>0.153865634897867</v>
+        <v>0.07697626934741827</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.086337666666665</v>
+        <v>3.735883</v>
       </c>
       <c r="H4">
-        <v>27.259013</v>
+        <v>11.207649</v>
       </c>
       <c r="I4">
-        <v>0.2905360353722419</v>
+        <v>0.1699536238627456</v>
       </c>
       <c r="J4">
-        <v>0.2905360353722419</v>
+        <v>0.1699536238627456</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.476218</v>
+        <v>0.41126</v>
       </c>
       <c r="N4">
-        <v>1.428654</v>
+        <v>1.23378</v>
       </c>
       <c r="O4">
-        <v>0.3420186573390345</v>
+        <v>0.2526069322870184</v>
       </c>
       <c r="P4">
-        <v>0.3420186573390345</v>
+        <v>0.2526069322870184</v>
       </c>
       <c r="Q4">
-        <v>4.327077550944666</v>
+        <v>1.53641924258</v>
       </c>
       <c r="R4">
-        <v>38.94369795850199</v>
+        <v>13.82777318322</v>
       </c>
       <c r="S4">
-        <v>0.09936874472662041</v>
+        <v>0.04293146355502996</v>
       </c>
       <c r="T4">
-        <v>0.09936874472662041</v>
+        <v>0.04293146355502997</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>40.922842</v>
       </c>
       <c r="I5">
-        <v>0.4361698741933416</v>
+        <v>0.620557022856673</v>
       </c>
       <c r="J5">
-        <v>0.4361698741933416</v>
+        <v>0.6205570228566729</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1787656666666667</v>
+        <v>0.4794123333333333</v>
       </c>
       <c r="N5">
-        <v>0.536297</v>
+        <v>1.438237</v>
       </c>
       <c r="O5">
-        <v>0.1283890850233522</v>
+        <v>0.2944679249717814</v>
       </c>
       <c r="P5">
-        <v>0.1283890850233522</v>
+        <v>0.2944679249717814</v>
       </c>
       <c r="Q5">
-        <v>2.438533044008222</v>
+        <v>6.539638389950445</v>
       </c>
       <c r="R5">
-        <v>21.946797396074</v>
+        <v>58.856745509554</v>
       </c>
       <c r="S5">
-        <v>0.05599945106243377</v>
+        <v>0.1827341388472708</v>
       </c>
       <c r="T5">
-        <v>0.05599945106243377</v>
+        <v>0.1827341388472708</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>40.922842</v>
       </c>
       <c r="I6">
-        <v>0.4361698741933416</v>
+        <v>0.620557022856673</v>
       </c>
       <c r="J6">
-        <v>0.4361698741933416</v>
+        <v>0.6205570228566729</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>2.212172</v>
       </c>
       <c r="O6">
-        <v>0.5295922576376132</v>
+        <v>0.4529251427412002</v>
       </c>
       <c r="P6">
-        <v>0.5295922576376132</v>
+        <v>0.4529251427412002</v>
       </c>
       <c r="Q6">
-        <v>10.05870724809155</v>
+        <v>10.05870724809156</v>
       </c>
       <c r="R6">
-        <v>90.52836523282399</v>
+        <v>90.528365232824</v>
       </c>
       <c r="S6">
-        <v>0.2309921883875655</v>
+        <v>0.2810658781564129</v>
       </c>
       <c r="T6">
-        <v>0.2309921883875655</v>
+        <v>0.2810658781564128</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>40.922842</v>
       </c>
       <c r="I7">
-        <v>0.4361698741933416</v>
+        <v>0.620557022856673</v>
       </c>
       <c r="J7">
-        <v>0.4361698741933416</v>
+        <v>0.6205570228566729</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.476218</v>
+        <v>0.41126</v>
       </c>
       <c r="N7">
-        <v>1.428654</v>
+        <v>1.23378</v>
       </c>
       <c r="O7">
-        <v>0.3420186573390345</v>
+        <v>0.2526069322870184</v>
       </c>
       <c r="P7">
-        <v>0.3420186573390345</v>
+        <v>0.2526069322870184</v>
       </c>
       <c r="Q7">
-        <v>6.496064657185332</v>
+        <v>5.609976000306667</v>
       </c>
       <c r="R7">
-        <v>58.46458191466799</v>
+        <v>50.48978400276</v>
       </c>
       <c r="S7">
-        <v>0.1491782347433423</v>
+        <v>0.1567570058529893</v>
       </c>
       <c r="T7">
-        <v>0.1491782347433423</v>
+        <v>0.1567570058529893</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.547106333333334</v>
+        <v>4.604948666666666</v>
       </c>
       <c r="H8">
-        <v>25.641319</v>
+        <v>13.814846</v>
       </c>
       <c r="I8">
-        <v>0.2732940904344166</v>
+        <v>0.2094893532805814</v>
       </c>
       <c r="J8">
-        <v>0.2732940904344166</v>
+        <v>0.2094893532805814</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1787656666666667</v>
+        <v>0.4794123333333333</v>
       </c>
       <c r="N8">
-        <v>0.536297</v>
+        <v>1.438237</v>
       </c>
       <c r="O8">
-        <v>0.1283890850233522</v>
+        <v>0.2944679249717814</v>
       </c>
       <c r="P8">
-        <v>0.1283890850233522</v>
+        <v>0.2944679249717814</v>
       </c>
       <c r="Q8">
-        <v>1.527929161749222</v>
+        <v>2.207669185166889</v>
       </c>
       <c r="R8">
-        <v>13.751362455743</v>
+        <v>19.869022666502</v>
       </c>
       <c r="S8">
-        <v>0.03508797821316402</v>
+        <v>0.06168789516421325</v>
       </c>
       <c r="T8">
-        <v>0.03508797821316402</v>
+        <v>0.06168789516421325</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.547106333333334</v>
+        <v>4.604948666666666</v>
       </c>
       <c r="H9">
-        <v>25.641319</v>
+        <v>13.814846</v>
       </c>
       <c r="I9">
-        <v>0.2732940904344166</v>
+        <v>0.2094893532805814</v>
       </c>
       <c r="J9">
-        <v>0.2732940904344166</v>
+        <v>0.2094893532805814</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>2.212172</v>
       </c>
       <c r="O9">
-        <v>0.5295922576376132</v>
+        <v>0.4529251427412002</v>
       </c>
       <c r="P9">
-        <v>0.5295922576376132</v>
+        <v>0.4529251427412002</v>
       </c>
       <c r="Q9">
-        <v>6.302556437207556</v>
+        <v>3.395646167279111</v>
       </c>
       <c r="R9">
-        <v>56.72300793486799</v>
+        <v>30.560815505512</v>
       </c>
       <c r="S9">
-        <v>0.1447344343521807</v>
+        <v>0.09488299523736907</v>
       </c>
       <c r="T9">
-        <v>0.1447344343521807</v>
+        <v>0.09488299523736904</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.547106333333334</v>
+        <v>4.604948666666666</v>
       </c>
       <c r="H10">
-        <v>25.641319</v>
+        <v>13.814846</v>
       </c>
       <c r="I10">
-        <v>0.2732940904344166</v>
+        <v>0.2094893532805814</v>
       </c>
       <c r="J10">
-        <v>0.2732940904344166</v>
+        <v>0.2094893532805814</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.476218</v>
+        <v>0.41126</v>
       </c>
       <c r="N10">
-        <v>1.428654</v>
+        <v>1.23378</v>
       </c>
       <c r="O10">
-        <v>0.3420186573390345</v>
+        <v>0.2526069322870184</v>
       </c>
       <c r="P10">
-        <v>0.3420186573390345</v>
+        <v>0.2526069322870184</v>
       </c>
       <c r="Q10">
-        <v>4.070285883847333</v>
+        <v>1.893831188653333</v>
       </c>
       <c r="R10">
-        <v>36.63257295462599</v>
+        <v>17.04448069788</v>
       </c>
       <c r="S10">
-        <v>0.09347167786907185</v>
+        <v>0.0529184628789991</v>
       </c>
       <c r="T10">
-        <v>0.09347167786907185</v>
+        <v>0.05291846287899911</v>
       </c>
     </row>
   </sheetData>
